--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>patientid</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>artifacts/distortion</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+  </si>
+  <si>
+    <t>No finding</t>
+  </si>
+  <si>
+    <t>X-ray</t>
   </si>
 </sst>
 </file>
@@ -92,12 +101,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -122,6 +137,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +424,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,6 +481,27 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
     <row r="29" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M29" s="4"/>
     </row>
